--- a/data/etc/2015/duplicates.xlsx
+++ b/data/etc/2015/duplicates.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250128" uniqueCount="2546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260550" uniqueCount="2546">
   <si>
     <t>submissiondate</t>
   </si>
@@ -11129,13 +11129,13 @@
         <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>403</v>
@@ -11176,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T12" s="0">
         <v>6</v>
@@ -11200,31 +11200,31 @@
         <v>3</v>
       </c>
       <c r="AA12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AB12" t="s">
         <v>619</v>
       </c>
       <c r="AC12" s="0">
+        <v>61973012</v>
+      </c>
+      <c r="AD12" s="0">
         <v>79062914</v>
       </c>
-      <c r="AD12" s="0">
-        <v>61973012</v>
-      </c>
       <c r="AE12" s="0">
-        <v>13.063042640686035</v>
+        <v>13.076375961303711</v>
       </c>
       <c r="AF12" s="0">
-        <v>-1.0849522352218628</v>
+        <v>-1.086039662361145</v>
       </c>
       <c r="AG12" s="0">
-        <v>354.53817749023437</v>
+        <v>342.7674560546875</v>
       </c>
       <c r="AH12" s="0">
         <v>4</v>
       </c>
       <c r="AI12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AJ12" t="s">
         <v>731</v>
@@ -11233,7 +11233,7 @@
         <v>72016</v>
       </c>
       <c r="AL12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AM12" s="0">
         <v>1</v>
@@ -11247,13 +11247,13 @@
         <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>403</v>
@@ -11294,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T13" s="0">
         <v>6</v>
@@ -11318,31 +11318,31 @@
         <v>3</v>
       </c>
       <c r="AA13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AB13" t="s">
         <v>619</v>
       </c>
       <c r="AC13" s="0">
+        <v>79062914</v>
+      </c>
+      <c r="AD13" s="0">
         <v>61973012</v>
       </c>
-      <c r="AD13" s="0">
-        <v>79062914</v>
-      </c>
       <c r="AE13" s="0">
-        <v>13.076375961303711</v>
+        <v>13.063042640686035</v>
       </c>
       <c r="AF13" s="0">
-        <v>-1.086039662361145</v>
+        <v>-1.0849522352218628</v>
       </c>
       <c r="AG13" s="0">
-        <v>342.7674560546875</v>
+        <v>354.53817749023437</v>
       </c>
       <c r="AH13" s="0">
         <v>4</v>
       </c>
       <c r="AI13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AJ13" t="s">
         <v>731</v>
@@ -11351,7 +11351,7 @@
         <v>72016</v>
       </c>
       <c r="AL13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AM13" s="0">
         <v>1</v>
@@ -12771,10 +12771,10 @@
         <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D26" t="s">
         <v>397</v>
@@ -12798,13 +12798,13 @@
         <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L26" s="0">
-        <v>71183878</v>
+        <v>69153400</v>
       </c>
       <c r="M26" s="0">
-        <v>71183878</v>
+        <v>69153400</v>
       </c>
       <c r="N26" s="0"/>
       <c r="O26" s="0">
@@ -12812,35 +12812,37 @@
       </c>
       <c r="P26" s="0"/>
       <c r="Q26" s="0">
+        <v>6</v>
+      </c>
+      <c r="R26" s="0">
+        <v>1</v>
+      </c>
+      <c r="S26" s="0">
+        <v>9</v>
+      </c>
+      <c r="T26" s="0">
+        <v>0</v>
+      </c>
+      <c r="U26" s="0">
+        <v>0</v>
+      </c>
+      <c r="V26" s="0">
+        <v>1</v>
+      </c>
+      <c r="W26" s="0">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y26" s="0">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="0">
         <v>3</v>
       </c>
-      <c r="R26" s="0">
-        <v>0</v>
-      </c>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0">
-        <v>6</v>
-      </c>
-      <c r="U26" s="0">
-        <v>6</v>
-      </c>
-      <c r="V26" s="0">
-        <v>1</v>
-      </c>
-      <c r="W26" s="0">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y26" s="0">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="0">
-        <v>4</v>
-      </c>
       <c r="AA26" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AB26" t="s">
         <v>623</v>
@@ -12852,19 +12854,19 @@
         <v>76258561</v>
       </c>
       <c r="AE26" s="0">
-        <v>12.182738304138184</v>
+        <v>12.182742118835449</v>
       </c>
       <c r="AF26" s="0">
-        <v>-1.555014967918396</v>
+        <v>-1.5550111532211304</v>
       </c>
       <c r="AG26" s="0">
-        <v>332.791015625</v>
+        <v>334.52459716796875</v>
       </c>
       <c r="AH26" s="0">
         <v>4</v>
       </c>
       <c r="AI26" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AJ26" t="s">
         <v>738</v>
@@ -12873,7 +12875,7 @@
         <v>72016</v>
       </c>
       <c r="AL26" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AM26" s="0">
         <v>1</v>
@@ -12887,10 +12889,10 @@
         <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D27" t="s">
         <v>397</v>
@@ -12914,13 +12916,13 @@
         <v>89</v>
       </c>
       <c r="K27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L27" s="0">
-        <v>69153400</v>
+        <v>71183878</v>
       </c>
       <c r="M27" s="0">
-        <v>69153400</v>
+        <v>71183878</v>
       </c>
       <c r="N27" s="0"/>
       <c r="O27" s="0">
@@ -12928,19 +12930,17 @@
       </c>
       <c r="P27" s="0"/>
       <c r="Q27" s="0">
+        <v>3</v>
+      </c>
+      <c r="R27" s="0">
+        <v>0</v>
+      </c>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0">
         <v>6</v>
       </c>
-      <c r="R27" s="0">
-        <v>1</v>
-      </c>
-      <c r="S27" s="0">
-        <v>9</v>
-      </c>
-      <c r="T27" s="0">
-        <v>0</v>
-      </c>
       <c r="U27" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V27" s="0">
         <v>1</v>
@@ -12949,16 +12949,16 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Y27" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AB27" t="s">
         <v>623</v>
@@ -12970,19 +12970,19 @@
         <v>76258561</v>
       </c>
       <c r="AE27" s="0">
-        <v>12.182742118835449</v>
+        <v>12.182738304138184</v>
       </c>
       <c r="AF27" s="0">
-        <v>-1.5550111532211304</v>
+        <v>-1.555014967918396</v>
       </c>
       <c r="AG27" s="0">
-        <v>334.52459716796875</v>
+        <v>332.791015625</v>
       </c>
       <c r="AH27" s="0">
         <v>4</v>
       </c>
       <c r="AI27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AJ27" t="s">
         <v>738</v>
@@ -12991,7 +12991,7 @@
         <v>72016</v>
       </c>
       <c r="AL27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AM27" s="0">
         <v>1</v>
@@ -14175,10 +14175,10 @@
         <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D38" t="s">
         <v>399</v>
@@ -14258,19 +14258,19 @@
         <v>79542523</v>
       </c>
       <c r="AE38" s="0">
-        <v>12.363276481628418</v>
+        <v>12.363286972045898</v>
       </c>
       <c r="AF38" s="0">
-        <v>-1.4718724489212036</v>
+        <v>-1.4718532562255859</v>
       </c>
       <c r="AG38" s="0">
-        <v>334.67276000976562</v>
+        <v>310.28335571289062</v>
       </c>
       <c r="AH38" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AJ38" t="s">
         <v>744</v>
@@ -14279,7 +14279,7 @@
         <v>72016</v>
       </c>
       <c r="AL38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AM38" s="0">
         <v>1</v>
@@ -14293,10 +14293,10 @@
         <v>200</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D39" t="s">
         <v>399</v>
@@ -14376,19 +14376,19 @@
         <v>79542523</v>
       </c>
       <c r="AE39" s="0">
-        <v>12.363286972045898</v>
+        <v>12.363276481628418</v>
       </c>
       <c r="AF39" s="0">
-        <v>-1.4718532562255859</v>
+        <v>-1.4718724489212036</v>
       </c>
       <c r="AG39" s="0">
-        <v>310.28335571289062</v>
+        <v>334.67276000976562</v>
       </c>
       <c r="AH39" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI39" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AJ39" t="s">
         <v>744</v>
@@ -14397,7 +14397,7 @@
         <v>72016</v>
       </c>
       <c r="AL39" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AM39" s="0">
         <v>1</v>
@@ -17829,13 +17829,13 @@
         <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s">
-        <v>375</v>
+        <v>282</v>
       </c>
       <c r="D69" t="s">
-        <v>396</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
         <v>411</v>
@@ -17856,7 +17856,7 @@
         <v>89</v>
       </c>
       <c r="K69" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L69" s="0">
         <v>61151687</v>
@@ -17891,10 +17891,10 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y69" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z69" s="0">
         <v>2</v>
@@ -17912,19 +17912,19 @@
         <v>70746732</v>
       </c>
       <c r="AE69" s="0">
-        <v>14.028984069824219</v>
+        <v>14.033792495727539</v>
       </c>
       <c r="AF69" s="0">
-        <v>-0.032648671418428421</v>
+        <v>-0.031043209135532379</v>
       </c>
       <c r="AG69" s="0">
-        <v>301.60000610351562</v>
+        <v>302.79998779296875</v>
       </c>
       <c r="AH69" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI69" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ69" t="s">
         <v>759</v>
@@ -17933,7 +17933,7 @@
         <v>72016</v>
       </c>
       <c r="AL69" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AM69" s="0">
         <v>1</v>
@@ -17947,13 +17947,13 @@
         <v>223</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>375</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>396</v>
       </c>
       <c r="E70" t="s">
         <v>411</v>
@@ -17974,7 +17974,7 @@
         <v>89</v>
       </c>
       <c r="K70" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L70" s="0">
         <v>61151687</v>
@@ -18009,10 +18009,10 @@
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y70" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z70" s="0">
         <v>2</v>
@@ -18030,19 +18030,19 @@
         <v>70746732</v>
       </c>
       <c r="AE70" s="0">
-        <v>14.033792495727539</v>
+        <v>14.028984069824219</v>
       </c>
       <c r="AF70" s="0">
-        <v>-0.031043209135532379</v>
+        <v>-0.032648671418428421</v>
       </c>
       <c r="AG70" s="0">
-        <v>302.79998779296875</v>
+        <v>301.60000610351562</v>
       </c>
       <c r="AH70" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI70" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ70" t="s">
         <v>759</v>
@@ -18051,7 +18051,7 @@
         <v>72016</v>
       </c>
       <c r="AL70" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AM70" s="0">
         <v>1</v>
@@ -18065,13 +18065,13 @@
         <v>222</v>
       </c>
       <c r="B71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="D71" t="s">
-        <v>396</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s">
         <v>411</v>
@@ -18127,16 +18127,16 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Y71" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z71" s="0">
         <v>3</v>
       </c>
       <c r="AA71" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AB71" t="s">
         <v>633</v>
@@ -18148,19 +18148,19 @@
         <v>70746732</v>
       </c>
       <c r="AE71" s="0">
-        <v>14.029053688049316</v>
+        <v>14.033783912658691</v>
       </c>
       <c r="AF71" s="0">
-        <v>-0.03261445090174675</v>
+        <v>-0.031044170260429382</v>
       </c>
       <c r="AG71" s="0">
-        <v>308.5</v>
+        <v>303.79998779296875</v>
       </c>
       <c r="AH71" s="0">
         <v>5</v>
       </c>
       <c r="AI71" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AJ71" t="s">
         <v>760</v>
@@ -18169,7 +18169,7 @@
         <v>72016</v>
       </c>
       <c r="AL71" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AM71" s="0">
         <v>1</v>
@@ -18183,13 +18183,13 @@
         <v>222</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>396</v>
       </c>
       <c r="E72" t="s">
         <v>411</v>
@@ -18245,16 +18245,16 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Y72" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z72" s="0">
         <v>3</v>
       </c>
       <c r="AA72" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AB72" t="s">
         <v>633</v>
@@ -18266,19 +18266,19 @@
         <v>70746732</v>
       </c>
       <c r="AE72" s="0">
-        <v>14.033783912658691</v>
+        <v>14.029053688049316</v>
       </c>
       <c r="AF72" s="0">
-        <v>-0.031044170260429382</v>
+        <v>-0.03261445090174675</v>
       </c>
       <c r="AG72" s="0">
-        <v>303.79998779296875</v>
+        <v>308.5</v>
       </c>
       <c r="AH72" s="0">
         <v>5</v>
       </c>
       <c r="AI72" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AJ72" t="s">
         <v>760</v>
@@ -18287,7 +18287,7 @@
         <v>72016</v>
       </c>
       <c r="AL72" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM72" s="0">
         <v>1</v>
@@ -25853,13 +25853,13 @@
         <v>782</v>
       </c>
       <c r="B57" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C57" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="E57" t="s">
         <v>411</v>
@@ -25886,7 +25886,7 @@
         <v>1125</v>
       </c>
       <c r="M57" s="0">
-        <v>79664235</v>
+        <v>71296557</v>
       </c>
       <c r="N57" s="0">
         <v>79664235</v>
@@ -25897,13 +25897,13 @@
       </c>
       <c r="Q57" s="0"/>
       <c r="R57" s="0">
+        <v>2</v>
+      </c>
+      <c r="S57" s="0">
+        <v>1</v>
+      </c>
+      <c r="T57" s="0">
         <v>5</v>
-      </c>
-      <c r="S57" s="0">
-        <v>1</v>
-      </c>
-      <c r="T57" s="0">
-        <v>7</v>
       </c>
       <c r="U57" t="s">
         <v>633</v>
@@ -25915,19 +25915,19 @@
         <v>70746732</v>
       </c>
       <c r="X57" s="0">
-        <v>14.036609649658203</v>
+        <v>14.029008865356445</v>
       </c>
       <c r="Y57" s="0">
-        <v>-0.032943520694971085</v>
+        <v>-0.032592598348855972</v>
       </c>
       <c r="Z57" s="0">
-        <v>313.60000610351562</v>
+        <v>312.10000610351562</v>
       </c>
       <c r="AA57" s="0">
         <v>5</v>
       </c>
       <c r="AB57" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AC57" t="s">
         <v>1320</v>
@@ -25936,7 +25936,7 @@
         <v>72016</v>
       </c>
       <c r="AE57" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AF57" s="0">
         <v>3</v>
@@ -25950,13 +25950,13 @@
         <v>782</v>
       </c>
       <c r="B58" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C58" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D58" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
         <v>411</v>
@@ -25983,7 +25983,7 @@
         <v>1125</v>
       </c>
       <c r="M58" s="0">
-        <v>71296557</v>
+        <v>79664235</v>
       </c>
       <c r="N58" s="0">
         <v>79664235</v>
@@ -25994,13 +25994,13 @@
       </c>
       <c r="Q58" s="0"/>
       <c r="R58" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S58" s="0">
         <v>1</v>
       </c>
       <c r="T58" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U58" t="s">
         <v>633</v>
@@ -26012,19 +26012,19 @@
         <v>70746732</v>
       </c>
       <c r="X58" s="0">
-        <v>14.029008865356445</v>
+        <v>14.036609649658203</v>
       </c>
       <c r="Y58" s="0">
-        <v>-0.032592598348855972</v>
+        <v>-0.032943520694971085</v>
       </c>
       <c r="Z58" s="0">
-        <v>312.10000610351562</v>
+        <v>313.60000610351562</v>
       </c>
       <c r="AA58" s="0">
         <v>5</v>
       </c>
       <c r="AB58" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AC58" t="s">
         <v>1320</v>
@@ -26033,7 +26033,7 @@
         <v>72016</v>
       </c>
       <c r="AE58" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AF58" s="0">
         <v>3</v>
@@ -26047,13 +26047,13 @@
         <v>776</v>
       </c>
       <c r="B59" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C59" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="E59" t="s">
         <v>411</v>
@@ -26080,10 +26080,10 @@
         <v>1125</v>
       </c>
       <c r="M59" s="0">
+        <v>71296557</v>
+      </c>
+      <c r="N59" s="0">
         <v>79664235</v>
-      </c>
-      <c r="N59" s="0">
-        <v>71296557</v>
       </c>
       <c r="O59" s="0"/>
       <c r="P59" s="0">
@@ -26091,13 +26091,13 @@
       </c>
       <c r="Q59" s="0"/>
       <c r="R59" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S59" s="0">
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U59" t="s">
         <v>633</v>
@@ -26109,19 +26109,19 @@
         <v>70746732</v>
       </c>
       <c r="X59" s="0">
-        <v>14.036609649658203</v>
+        <v>14.029008865356445</v>
       </c>
       <c r="Y59" s="0">
-        <v>-0.032943520694971085</v>
+        <v>-0.032592598348855972</v>
       </c>
       <c r="Z59" s="0">
-        <v>313.60000610351562</v>
+        <v>312.10000610351562</v>
       </c>
       <c r="AA59" s="0">
         <v>5</v>
       </c>
       <c r="AB59" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AC59" t="s">
         <v>1320</v>
@@ -26130,7 +26130,7 @@
         <v>72016</v>
       </c>
       <c r="AE59" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AF59" s="0">
         <v>3</v>
@@ -26144,13 +26144,13 @@
         <v>776</v>
       </c>
       <c r="B60" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C60" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D60" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
         <v>411</v>
@@ -26177,10 +26177,10 @@
         <v>1125</v>
       </c>
       <c r="M60" s="0">
+        <v>79664235</v>
+      </c>
+      <c r="N60" s="0">
         <v>71296557</v>
-      </c>
-      <c r="N60" s="0">
-        <v>79664235</v>
       </c>
       <c r="O60" s="0"/>
       <c r="P60" s="0">
@@ -26188,13 +26188,13 @@
       </c>
       <c r="Q60" s="0"/>
       <c r="R60" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U60" t="s">
         <v>633</v>
@@ -26206,19 +26206,19 @@
         <v>70746732</v>
       </c>
       <c r="X60" s="0">
-        <v>14.029008865356445</v>
+        <v>14.036609649658203</v>
       </c>
       <c r="Y60" s="0">
-        <v>-0.032592598348855972</v>
+        <v>-0.032943520694971085</v>
       </c>
       <c r="Z60" s="0">
-        <v>312.10000610351562</v>
+        <v>313.60000610351562</v>
       </c>
       <c r="AA60" s="0">
         <v>5</v>
       </c>
       <c r="AB60" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AC60" t="s">
         <v>1320</v>
@@ -26227,7 +26227,7 @@
         <v>72016</v>
       </c>
       <c r="AE60" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AF60" s="0">
         <v>3</v>
@@ -32055,10 +32055,10 @@
         <v>775</v>
       </c>
       <c r="B121" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C121" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D121" t="s">
         <v>46</v>
@@ -32085,13 +32085,13 @@
         <v>89</v>
       </c>
       <c r="L121" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="M121" s="0">
-        <v>76493199</v>
+        <v>68463775</v>
       </c>
       <c r="N121" s="0">
-        <v>76493199</v>
+        <v>68463775</v>
       </c>
       <c r="O121" s="0"/>
       <c r="P121" s="0">
@@ -32105,7 +32105,7 @@
         <v>0</v>
       </c>
       <c r="T121" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U121" t="s">
         <v>130</v>
@@ -32117,19 +32117,19 @@
         <v>79146080</v>
       </c>
       <c r="X121" s="0">
-        <v>10.663491249084473</v>
+        <v>10.663528442382813</v>
       </c>
       <c r="Y121" s="0">
-        <v>-4.7367987632751465</v>
+        <v>-4.7367877960205078</v>
       </c>
       <c r="Z121" s="0">
-        <v>347.54165649414062</v>
+        <v>329.90121459960937</v>
       </c>
       <c r="AA121" s="0">
         <v>4</v>
       </c>
       <c r="AB121" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="AC121" t="s">
         <v>1341</v>
@@ -32138,7 +32138,7 @@
         <v>72016</v>
       </c>
       <c r="AE121" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="AF121" s="0">
         <v>1</v>
@@ -32152,10 +32152,10 @@
         <v>775</v>
       </c>
       <c r="B122" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C122" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D122" t="s">
         <v>46</v>
@@ -32182,13 +32182,13 @@
         <v>89</v>
       </c>
       <c r="L122" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="M122" s="0">
-        <v>68463775</v>
+        <v>76493199</v>
       </c>
       <c r="N122" s="0">
-        <v>68463775</v>
+        <v>76493199</v>
       </c>
       <c r="O122" s="0"/>
       <c r="P122" s="0">
@@ -32202,7 +32202,7 @@
         <v>0</v>
       </c>
       <c r="T122" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U122" t="s">
         <v>130</v>
@@ -32214,19 +32214,19 @@
         <v>79146080</v>
       </c>
       <c r="X122" s="0">
-        <v>10.663528442382813</v>
+        <v>10.663491249084473</v>
       </c>
       <c r="Y122" s="0">
-        <v>-4.7367877960205078</v>
+        <v>-4.7367987632751465</v>
       </c>
       <c r="Z122" s="0">
-        <v>329.90121459960937</v>
+        <v>347.54165649414062</v>
       </c>
       <c r="AA122" s="0">
         <v>4</v>
       </c>
       <c r="AB122" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AC122" t="s">
         <v>1341</v>
@@ -32235,7 +32235,7 @@
         <v>72016</v>
       </c>
       <c r="AE122" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AF122" s="0">
         <v>1</v>

--- a/data/etc/2015/duplicates.xlsx
+++ b/data/etc/2015/duplicates.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260550" uniqueCount="2546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302238" uniqueCount="2546">
   <si>
     <t>submissiondate</t>
   </si>
@@ -12771,10 +12771,10 @@
         <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D26" t="s">
         <v>397</v>
@@ -12798,13 +12798,13 @@
         <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L26" s="0">
-        <v>69153400</v>
+        <v>71183878</v>
       </c>
       <c r="M26" s="0">
-        <v>69153400</v>
+        <v>71183878</v>
       </c>
       <c r="N26" s="0"/>
       <c r="O26" s="0">
@@ -12812,19 +12812,17 @@
       </c>
       <c r="P26" s="0"/>
       <c r="Q26" s="0">
+        <v>3</v>
+      </c>
+      <c r="R26" s="0">
+        <v>0</v>
+      </c>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0">
         <v>6</v>
       </c>
-      <c r="R26" s="0">
-        <v>1</v>
-      </c>
-      <c r="S26" s="0">
-        <v>9</v>
-      </c>
-      <c r="T26" s="0">
-        <v>0</v>
-      </c>
       <c r="U26" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V26" s="0">
         <v>1</v>
@@ -12833,16 +12831,16 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Y26" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AB26" t="s">
         <v>623</v>
@@ -12854,19 +12852,19 @@
         <v>76258561</v>
       </c>
       <c r="AE26" s="0">
-        <v>12.182742118835449</v>
+        <v>12.182738304138184</v>
       </c>
       <c r="AF26" s="0">
-        <v>-1.5550111532211304</v>
+        <v>-1.555014967918396</v>
       </c>
       <c r="AG26" s="0">
-        <v>334.52459716796875</v>
+        <v>332.791015625</v>
       </c>
       <c r="AH26" s="0">
         <v>4</v>
       </c>
       <c r="AI26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AJ26" t="s">
         <v>738</v>
@@ -12875,7 +12873,7 @@
         <v>72016</v>
       </c>
       <c r="AL26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AM26" s="0">
         <v>1</v>
@@ -12889,10 +12887,10 @@
         <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D27" t="s">
         <v>397</v>
@@ -12916,13 +12914,13 @@
         <v>89</v>
       </c>
       <c r="K27" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L27" s="0">
-        <v>71183878</v>
+        <v>69153400</v>
       </c>
       <c r="M27" s="0">
-        <v>71183878</v>
+        <v>69153400</v>
       </c>
       <c r="N27" s="0"/>
       <c r="O27" s="0">
@@ -12930,35 +12928,37 @@
       </c>
       <c r="P27" s="0"/>
       <c r="Q27" s="0">
+        <v>6</v>
+      </c>
+      <c r="R27" s="0">
+        <v>1</v>
+      </c>
+      <c r="S27" s="0">
+        <v>9</v>
+      </c>
+      <c r="T27" s="0">
+        <v>0</v>
+      </c>
+      <c r="U27" s="0">
+        <v>0</v>
+      </c>
+      <c r="V27" s="0">
+        <v>1</v>
+      </c>
+      <c r="W27" s="0">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y27" s="0">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="0">
         <v>3</v>
       </c>
-      <c r="R27" s="0">
-        <v>0</v>
-      </c>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0">
-        <v>6</v>
-      </c>
-      <c r="U27" s="0">
-        <v>6</v>
-      </c>
-      <c r="V27" s="0">
-        <v>1</v>
-      </c>
-      <c r="W27" s="0">
-        <v>0</v>
-      </c>
-      <c r="X27" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y27" s="0">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="0">
-        <v>4</v>
-      </c>
       <c r="AA27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AB27" t="s">
         <v>623</v>
@@ -12970,19 +12970,19 @@
         <v>76258561</v>
       </c>
       <c r="AE27" s="0">
-        <v>12.182738304138184</v>
+        <v>12.182742118835449</v>
       </c>
       <c r="AF27" s="0">
-        <v>-1.555014967918396</v>
+        <v>-1.5550111532211304</v>
       </c>
       <c r="AG27" s="0">
-        <v>332.791015625</v>
+        <v>334.52459716796875</v>
       </c>
       <c r="AH27" s="0">
         <v>4</v>
       </c>
       <c r="AI27" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AJ27" t="s">
         <v>738</v>
@@ -12991,7 +12991,7 @@
         <v>72016</v>
       </c>
       <c r="AL27" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AM27" s="0">
         <v>1</v>
@@ -17829,13 +17829,13 @@
         <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>375</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>396</v>
       </c>
       <c r="E69" t="s">
         <v>411</v>
@@ -17856,7 +17856,7 @@
         <v>89</v>
       </c>
       <c r="K69" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L69" s="0">
         <v>61151687</v>
@@ -17891,10 +17891,10 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Y69" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z69" s="0">
         <v>2</v>
@@ -17912,19 +17912,19 @@
         <v>70746732</v>
       </c>
       <c r="AE69" s="0">
-        <v>14.033792495727539</v>
+        <v>14.028984069824219</v>
       </c>
       <c r="AF69" s="0">
-        <v>-0.031043209135532379</v>
+        <v>-0.032648671418428421</v>
       </c>
       <c r="AG69" s="0">
-        <v>302.79998779296875</v>
+        <v>301.60000610351562</v>
       </c>
       <c r="AH69" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI69" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AJ69" t="s">
         <v>759</v>
@@ -17933,7 +17933,7 @@
         <v>72016</v>
       </c>
       <c r="AL69" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AM69" s="0">
         <v>1</v>
@@ -17947,13 +17947,13 @@
         <v>223</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s">
-        <v>375</v>
+        <v>282</v>
       </c>
       <c r="D70" t="s">
-        <v>396</v>
+        <v>50</v>
       </c>
       <c r="E70" t="s">
         <v>411</v>
@@ -17974,7 +17974,7 @@
         <v>89</v>
       </c>
       <c r="K70" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L70" s="0">
         <v>61151687</v>
@@ -18009,10 +18009,10 @@
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y70" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z70" s="0">
         <v>2</v>
@@ -18030,19 +18030,19 @@
         <v>70746732</v>
       </c>
       <c r="AE70" s="0">
-        <v>14.028984069824219</v>
+        <v>14.033792495727539</v>
       </c>
       <c r="AF70" s="0">
-        <v>-0.032648671418428421</v>
+        <v>-0.031043209135532379</v>
       </c>
       <c r="AG70" s="0">
-        <v>301.60000610351562</v>
+        <v>302.79998779296875</v>
       </c>
       <c r="AH70" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI70" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AJ70" t="s">
         <v>759</v>
@@ -18051,7 +18051,7 @@
         <v>72016</v>
       </c>
       <c r="AL70" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AM70" s="0">
         <v>1</v>
@@ -22458,13 +22458,13 @@
         <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C22" t="s">
-        <v>819</v>
+        <v>912</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="E22" t="s">
         <v>411</v>
@@ -22491,10 +22491,10 @@
         <v>1107</v>
       </c>
       <c r="M22" s="0">
-        <v>79942493</v>
+        <v>71296550</v>
       </c>
       <c r="N22" s="0">
-        <v>79942493</v>
+        <v>70028480</v>
       </c>
       <c r="O22" s="0"/>
       <c r="P22" s="0">
@@ -22508,7 +22508,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U22" t="s">
         <v>633</v>
@@ -22520,19 +22520,19 @@
         <v>70746732</v>
       </c>
       <c r="X22" s="0">
-        <v>14.036481857299805</v>
+        <v>14.029008865356445</v>
       </c>
       <c r="Y22" s="0">
-        <v>-0.032864119857549667</v>
+        <v>-0.032635558396577835</v>
       </c>
       <c r="Z22" s="0">
-        <v>305.60000610351562</v>
+        <v>306.39999389648437</v>
       </c>
       <c r="AA22" s="0">
         <v>5</v>
       </c>
       <c r="AB22" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AC22" t="s">
         <v>1317</v>
@@ -22541,7 +22541,7 @@
         <v>72016</v>
       </c>
       <c r="AE22" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AF22" s="0">
         <v>3</v>
@@ -22555,13 +22555,13 @@
         <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C23" t="s">
-        <v>912</v>
+        <v>819</v>
       </c>
       <c r="D23" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
         <v>411</v>
@@ -22588,10 +22588,10 @@
         <v>1107</v>
       </c>
       <c r="M23" s="0">
-        <v>71296550</v>
+        <v>79942493</v>
       </c>
       <c r="N23" s="0">
-        <v>70028480</v>
+        <v>79942493</v>
       </c>
       <c r="O23" s="0"/>
       <c r="P23" s="0">
@@ -22605,7 +22605,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U23" t="s">
         <v>633</v>
@@ -22617,19 +22617,19 @@
         <v>70746732</v>
       </c>
       <c r="X23" s="0">
-        <v>14.029008865356445</v>
+        <v>14.036481857299805</v>
       </c>
       <c r="Y23" s="0">
-        <v>-0.032635558396577835</v>
+        <v>-0.032864119857549667</v>
       </c>
       <c r="Z23" s="0">
-        <v>306.39999389648437</v>
+        <v>305.60000610351562</v>
       </c>
       <c r="AA23" s="0">
         <v>5</v>
       </c>
       <c r="AB23" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AC23" t="s">
         <v>1317</v>
@@ -22638,7 +22638,7 @@
         <v>72016</v>
       </c>
       <c r="AE23" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AF23" s="0">
         <v>3</v>
@@ -24301,13 +24301,13 @@
         <v>782</v>
       </c>
       <c r="B41" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C41" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D41" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
         <v>411</v>
@@ -24337,7 +24337,7 @@
         <v>70685390</v>
       </c>
       <c r="N41" s="0">
-        <v>72256120</v>
+        <v>7068539</v>
       </c>
       <c r="O41" s="0"/>
       <c r="P41" s="0">
@@ -24345,13 +24345,13 @@
       </c>
       <c r="Q41" s="0"/>
       <c r="R41" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S41" s="0">
         <v>0</v>
       </c>
       <c r="T41" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U41" t="s">
         <v>633</v>
@@ -24363,19 +24363,19 @@
         <v>70746732</v>
       </c>
       <c r="X41" s="0">
-        <v>14.02901554107666</v>
+        <v>14.036472320556641</v>
       </c>
       <c r="Y41" s="0">
-        <v>-0.032602768391370773</v>
+        <v>-0.033009309321641922</v>
       </c>
       <c r="Z41" s="0">
-        <v>307.20001220703125</v>
+        <v>310.39999389648437</v>
       </c>
       <c r="AA41" s="0">
         <v>5</v>
       </c>
       <c r="AB41" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="AC41" t="s">
         <v>1320</v>
@@ -24384,7 +24384,7 @@
         <v>72016</v>
       </c>
       <c r="AE41" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="AF41" s="0">
         <v>2</v>
@@ -24398,13 +24398,13 @@
         <v>782</v>
       </c>
       <c r="B42" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C42" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="E42" t="s">
         <v>411</v>
@@ -24434,7 +24434,7 @@
         <v>70685390</v>
       </c>
       <c r="N42" s="0">
-        <v>7068539</v>
+        <v>72256120</v>
       </c>
       <c r="O42" s="0"/>
       <c r="P42" s="0">
@@ -24442,13 +24442,13 @@
       </c>
       <c r="Q42" s="0"/>
       <c r="R42" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U42" t="s">
         <v>633</v>
@@ -24460,19 +24460,19 @@
         <v>70746732</v>
       </c>
       <c r="X42" s="0">
-        <v>14.036472320556641</v>
+        <v>14.02901554107666</v>
       </c>
       <c r="Y42" s="0">
-        <v>-0.033009309321641922</v>
+        <v>-0.032602768391370773</v>
       </c>
       <c r="Z42" s="0">
-        <v>310.39999389648437</v>
+        <v>307.20001220703125</v>
       </c>
       <c r="AA42" s="0">
         <v>5</v>
       </c>
       <c r="AB42" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AC42" t="s">
         <v>1320</v>
@@ -24481,7 +24481,7 @@
         <v>72016</v>
       </c>
       <c r="AE42" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AF42" s="0">
         <v>2</v>
@@ -25465,13 +25465,13 @@
         <v>776</v>
       </c>
       <c r="B53" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C53" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="E53" t="s">
         <v>411</v>
@@ -25495,13 +25495,13 @@
         <v>89</v>
       </c>
       <c r="L53" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="M53" s="0">
         <v>79867954</v>
       </c>
       <c r="N53" s="0">
-        <v>79867954</v>
+        <v>71296552</v>
       </c>
       <c r="O53" s="0"/>
       <c r="P53" s="0">
@@ -25509,16 +25509,16 @@
       </c>
       <c r="Q53" s="0"/>
       <c r="R53" s="0">
+        <v>3</v>
+      </c>
+      <c r="S53" s="0">
+        <v>0</v>
+      </c>
+      <c r="T53" s="0">
         <v>4</v>
       </c>
-      <c r="S53" s="0">
-        <v>1</v>
-      </c>
-      <c r="T53" s="0">
-        <v>5</v>
-      </c>
       <c r="U53" t="s">
-        <v>1174</v>
+        <v>633</v>
       </c>
       <c r="V53" s="0">
         <v>70746732</v>
@@ -25527,19 +25527,19 @@
         <v>70746732</v>
       </c>
       <c r="X53" s="0">
-        <v>14.036473274230957</v>
+        <v>14.02900505065918</v>
       </c>
       <c r="Y53" s="0">
-        <v>-0.03301481157541275</v>
+        <v>-0.032617561519145966</v>
       </c>
       <c r="Z53" s="0">
-        <v>308.29998779296875</v>
+        <v>305.5</v>
       </c>
       <c r="AA53" s="0">
         <v>5</v>
       </c>
       <c r="AB53" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="AC53" t="s">
         <v>1320</v>
@@ -25548,7 +25548,7 @@
         <v>72016</v>
       </c>
       <c r="AE53" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="AF53" s="0">
         <v>3</v>
@@ -25562,13 +25562,13 @@
         <v>776</v>
       </c>
       <c r="B54" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C54" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D54" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
         <v>411</v>
@@ -25592,13 +25592,13 @@
         <v>89</v>
       </c>
       <c r="L54" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="M54" s="0">
         <v>79867954</v>
       </c>
       <c r="N54" s="0">
-        <v>71296552</v>
+        <v>79867954</v>
       </c>
       <c r="O54" s="0"/>
       <c r="P54" s="0">
@@ -25606,16 +25606,16 @@
       </c>
       <c r="Q54" s="0"/>
       <c r="R54" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U54" t="s">
-        <v>633</v>
+        <v>1174</v>
       </c>
       <c r="V54" s="0">
         <v>70746732</v>
@@ -25624,19 +25624,19 @@
         <v>70746732</v>
       </c>
       <c r="X54" s="0">
-        <v>14.02900505065918</v>
+        <v>14.036473274230957</v>
       </c>
       <c r="Y54" s="0">
-        <v>-0.032617561519145966</v>
+        <v>-0.03301481157541275</v>
       </c>
       <c r="Z54" s="0">
-        <v>305.5</v>
+        <v>308.29998779296875</v>
       </c>
       <c r="AA54" s="0">
         <v>5</v>
       </c>
       <c r="AB54" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AC54" t="s">
         <v>1320</v>
@@ -25645,7 +25645,7 @@
         <v>72016</v>
       </c>
       <c r="AE54" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AF54" s="0">
         <v>3</v>
@@ -25853,13 +25853,13 @@
         <v>782</v>
       </c>
       <c r="B57" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C57" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D57" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
         <v>411</v>
@@ -25886,7 +25886,7 @@
         <v>1125</v>
       </c>
       <c r="M57" s="0">
-        <v>71296557</v>
+        <v>79664235</v>
       </c>
       <c r="N57" s="0">
         <v>79664235</v>
@@ -25897,13 +25897,13 @@
       </c>
       <c r="Q57" s="0"/>
       <c r="R57" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S57" s="0">
         <v>1</v>
       </c>
       <c r="T57" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U57" t="s">
         <v>633</v>
@@ -25915,19 +25915,19 @@
         <v>70746732</v>
       </c>
       <c r="X57" s="0">
-        <v>14.029008865356445</v>
+        <v>14.036609649658203</v>
       </c>
       <c r="Y57" s="0">
-        <v>-0.032592598348855972</v>
+        <v>-0.032943520694971085</v>
       </c>
       <c r="Z57" s="0">
-        <v>312.10000610351562</v>
+        <v>313.60000610351562</v>
       </c>
       <c r="AA57" s="0">
         <v>5</v>
       </c>
       <c r="AB57" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AC57" t="s">
         <v>1320</v>
@@ -25936,7 +25936,7 @@
         <v>72016</v>
       </c>
       <c r="AE57" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AF57" s="0">
         <v>3</v>
@@ -25950,13 +25950,13 @@
         <v>782</v>
       </c>
       <c r="B58" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C58" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="E58" t="s">
         <v>411</v>
@@ -25983,7 +25983,7 @@
         <v>1125</v>
       </c>
       <c r="M58" s="0">
-        <v>79664235</v>
+        <v>71296557</v>
       </c>
       <c r="N58" s="0">
         <v>79664235</v>
@@ -25994,13 +25994,13 @@
       </c>
       <c r="Q58" s="0"/>
       <c r="R58" s="0">
+        <v>2</v>
+      </c>
+      <c r="S58" s="0">
+        <v>1</v>
+      </c>
+      <c r="T58" s="0">
         <v>5</v>
-      </c>
-      <c r="S58" s="0">
-        <v>1</v>
-      </c>
-      <c r="T58" s="0">
-        <v>7</v>
       </c>
       <c r="U58" t="s">
         <v>633</v>
@@ -26012,19 +26012,19 @@
         <v>70746732</v>
       </c>
       <c r="X58" s="0">
-        <v>14.036609649658203</v>
+        <v>14.029008865356445</v>
       </c>
       <c r="Y58" s="0">
-        <v>-0.032943520694971085</v>
+        <v>-0.032592598348855972</v>
       </c>
       <c r="Z58" s="0">
-        <v>313.60000610351562</v>
+        <v>312.10000610351562</v>
       </c>
       <c r="AA58" s="0">
         <v>5</v>
       </c>
       <c r="AB58" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AC58" t="s">
         <v>1320</v>
@@ -26033,7 +26033,7 @@
         <v>72016</v>
       </c>
       <c r="AE58" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AF58" s="0">
         <v>3</v>
@@ -28567,13 +28567,13 @@
         <v>787</v>
       </c>
       <c r="B85" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C85" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D85" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E85" t="s">
         <v>998</v>
@@ -28597,13 +28597,13 @@
         <v>89</v>
       </c>
       <c r="L85" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="M85" s="0">
-        <v>73182605</v>
+        <v>70348196</v>
       </c>
       <c r="N85" s="0">
-        <v>76238680</v>
+        <v>76238634</v>
       </c>
       <c r="O85" s="0"/>
       <c r="P85" s="0">
@@ -28629,19 +28629,19 @@
         <v>78232672</v>
       </c>
       <c r="X85" s="0">
-        <v>10.64753246307373</v>
+        <v>10.647576332092285</v>
       </c>
       <c r="Y85" s="0">
-        <v>-4.7380180358886719</v>
+        <v>-4.7379379272460938</v>
       </c>
       <c r="Z85" s="0">
-        <v>365.29998779296875</v>
+        <v>367.5</v>
       </c>
       <c r="AA85" s="0">
         <v>5</v>
       </c>
       <c r="AB85" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="AC85" t="s">
         <v>1326</v>
@@ -28650,7 +28650,7 @@
         <v>72016</v>
       </c>
       <c r="AE85" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="AF85" s="0">
         <v>1</v>
@@ -28664,13 +28664,13 @@
         <v>787</v>
       </c>
       <c r="B86" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C86" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D86" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E86" t="s">
         <v>998</v>
@@ -28694,13 +28694,13 @@
         <v>89</v>
       </c>
       <c r="L86" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="M86" s="0">
-        <v>70348196</v>
+        <v>73182605</v>
       </c>
       <c r="N86" s="0">
-        <v>76238634</v>
+        <v>76238680</v>
       </c>
       <c r="O86" s="0"/>
       <c r="P86" s="0">
@@ -28726,19 +28726,19 @@
         <v>78232672</v>
       </c>
       <c r="X86" s="0">
-        <v>10.647576332092285</v>
+        <v>10.64753246307373</v>
       </c>
       <c r="Y86" s="0">
-        <v>-4.7379379272460938</v>
+        <v>-4.7380180358886719</v>
       </c>
       <c r="Z86" s="0">
-        <v>367.5</v>
+        <v>365.29998779296875</v>
       </c>
       <c r="AA86" s="0">
         <v>5</v>
       </c>
       <c r="AB86" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="AC86" t="s">
         <v>1326</v>
@@ -28747,7 +28747,7 @@
         <v>72016</v>
       </c>
       <c r="AE86" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="AF86" s="0">
         <v>1</v>
@@ -32637,10 +32637,10 @@
         <v>806</v>
       </c>
       <c r="B127" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C127" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D127" t="s">
         <v>45</v>
@@ -32681,16 +32681,16 @@
       </c>
       <c r="Q127" s="0"/>
       <c r="R127" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S127" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T127" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U127" t="s">
-        <v>1186</v>
+        <v>628</v>
       </c>
       <c r="V127" s="0">
         <v>71938391</v>
@@ -32699,19 +32699,19 @@
         <v>75448501</v>
       </c>
       <c r="X127" s="0">
-        <v>12.245555877685547</v>
+        <v>12.245701789855957</v>
       </c>
       <c r="Y127" s="0">
-        <v>-0.60626500844955444</v>
+        <v>-0.60631304979324341</v>
       </c>
       <c r="Z127" s="0">
-        <v>374.84298706054687</v>
+        <v>336.67626953125</v>
       </c>
       <c r="AA127" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AB127" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="AC127" t="s">
         <v>1344</v>
@@ -32720,7 +32720,7 @@
         <v>72016</v>
       </c>
       <c r="AE127" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="AF127" s="0">
         <v>1</v>
@@ -32734,10 +32734,10 @@
         <v>806</v>
       </c>
       <c r="B128" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C128" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D128" t="s">
         <v>45</v>
@@ -32778,16 +32778,16 @@
       </c>
       <c r="Q128" s="0"/>
       <c r="R128" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S128" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T128" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U128" t="s">
-        <v>628</v>
+        <v>1186</v>
       </c>
       <c r="V128" s="0">
         <v>71938391</v>
@@ -32796,19 +32796,19 @@
         <v>75448501</v>
       </c>
       <c r="X128" s="0">
-        <v>12.245701789855957</v>
+        <v>12.245555877685547</v>
       </c>
       <c r="Y128" s="0">
-        <v>-0.60631304979324341</v>
+        <v>-0.60626500844955444</v>
       </c>
       <c r="Z128" s="0">
-        <v>336.67626953125</v>
+        <v>374.84298706054687</v>
       </c>
       <c r="AA128" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AB128" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AC128" t="s">
         <v>1344</v>
@@ -32817,7 +32817,7 @@
         <v>72016</v>
       </c>
       <c r="AE128" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AF128" s="0">
         <v>1</v>
@@ -34091,10 +34091,10 @@
         <v>1</v>
       </c>
       <c r="DN2" s="0">
-        <v>49850</v>
+        <v>5244000</v>
       </c>
       <c r="DO2" s="0">
-        <v>58423</v>
+        <v>58423000</v>
       </c>
       <c r="DP2" s="0">
         <v>91</v>
@@ -34606,10 +34606,10 @@
         <v>1</v>
       </c>
       <c r="DN3" s="0">
-        <v>49850</v>
+        <v>49850000</v>
       </c>
       <c r="DO3" s="0">
-        <v>58423</v>
+        <v>58423000</v>
       </c>
       <c r="DP3" s="0">
         <v>91</v>
@@ -35137,10 +35137,10 @@
         <v>1</v>
       </c>
       <c r="DN4" s="0">
-        <v>18726</v>
+        <v>3385000</v>
       </c>
       <c r="DO4" s="0">
-        <v>38738</v>
+        <v>38738000</v>
       </c>
       <c r="DP4" s="0">
         <v>50</v>
@@ -35694,10 +35694,10 @@
         <v>1</v>
       </c>
       <c r="DN5" s="0">
-        <v>18726</v>
+        <v>18726000</v>
       </c>
       <c r="DO5" s="0">
-        <v>38738</v>
+        <v>38738000</v>
       </c>
       <c r="DP5" s="0">
         <v>50</v>
@@ -36233,10 +36233,10 @@
         <v>1</v>
       </c>
       <c r="DN6" s="0">
-        <v>30304539</v>
+        <v>12459000</v>
       </c>
       <c r="DO6" s="0">
-        <v>1322650</v>
+        <v>132265000</v>
       </c>
       <c r="DP6" s="0">
         <v>60</v>
@@ -36772,10 +36772,10 @@
         <v>1</v>
       </c>
       <c r="DN7" s="0">
-        <v>3030</v>
+        <v>3030000</v>
       </c>
       <c r="DO7" s="0">
-        <v>1323</v>
+        <v>1323000</v>
       </c>
       <c r="DP7" s="0">
         <v>60</v>
@@ -37307,7 +37307,7 @@
         <v>1</v>
       </c>
       <c r="DN8" s="0">
-        <v>6098431</v>
+        <v>18726000</v>
       </c>
       <c r="DO8" s="0">
         <v>17331486</v>
@@ -37840,10 +37840,10 @@
         <v>1</v>
       </c>
       <c r="DN9" s="0">
-        <v>6098</v>
+        <v>6098000</v>
       </c>
       <c r="DO9" s="0">
-        <v>1733</v>
+        <v>1733000</v>
       </c>
       <c r="DP9" s="0">
         <v>81.480003356933594</v>
@@ -38381,10 +38381,10 @@
         <v>1</v>
       </c>
       <c r="DN10" s="0">
-        <v>30435</v>
+        <v>7219000</v>
       </c>
       <c r="DO10" s="0">
-        <v>36840</v>
+        <v>36840000</v>
       </c>
       <c r="DP10" s="0">
         <v>74</v>
@@ -38924,10 +38924,10 @@
         <v>1</v>
       </c>
       <c r="DN11" s="0">
-        <v>30435</v>
+        <v>30435000</v>
       </c>
       <c r="DO11" s="0">
-        <v>36840</v>
+        <v>36840000</v>
       </c>
       <c r="DP11" s="0">
         <v>74</v>
@@ -39452,9 +39452,11 @@
       <c r="DM12" s="0">
         <v>0</v>
       </c>
-      <c r="DN12" s="0"/>
+      <c r="DN12" s="0">
+        <v>5381912</v>
+      </c>
       <c r="DO12" s="0">
-        <v>18211800</v>
+        <v>18210000</v>
       </c>
       <c r="DP12" s="0">
         <v>100</v>
@@ -39979,9 +39981,11 @@
       <c r="DM13" s="0">
         <v>0</v>
       </c>
-      <c r="DN13" s="0"/>
+      <c r="DN13" s="0">
+        <v>5381912</v>
+      </c>
       <c r="DO13" s="0">
-        <v>1821</v>
+        <v>1821000</v>
       </c>
       <c r="DP13" s="0">
         <v>100</v>
@@ -40527,10 +40531,10 @@
         <v>1</v>
       </c>
       <c r="DN14" s="0">
-        <v>1830089</v>
+        <v>6806000</v>
       </c>
       <c r="DO14" s="0">
-        <v>201428</v>
+        <v>201428000</v>
       </c>
       <c r="DP14" s="0">
         <v>78.5</v>
@@ -41072,10 +41076,10 @@
         <v>1</v>
       </c>
       <c r="DN15" s="0">
-        <v>1830089</v>
+        <v>1830089000</v>
       </c>
       <c r="DO15" s="0">
-        <v>201428</v>
+        <v>201428000</v>
       </c>
       <c r="DP15" s="0">
         <v>78.5</v>
@@ -41617,10 +41621,10 @@
         <v>1</v>
       </c>
       <c r="DN16" s="0">
-        <v>119764</v>
+        <v>11674000</v>
       </c>
       <c r="DO16" s="0">
-        <v>140913</v>
+        <v>140913000</v>
       </c>
       <c r="DP16" s="0">
         <v>66.639999389648437</v>
@@ -42166,10 +42170,10 @@
         <v>1</v>
       </c>
       <c r="DN17" s="0">
-        <v>119764</v>
+        <v>133220000</v>
       </c>
       <c r="DO17" s="0">
-        <v>140913</v>
+        <v>140913000</v>
       </c>
       <c r="DP17" s="0">
         <v>66.639999389648437</v>
@@ -42707,7 +42711,7 @@
         <v>1</v>
       </c>
       <c r="DN18" s="0">
-        <v>2226000</v>
+        <v>53615000</v>
       </c>
       <c r="DO18" s="0">
         <v>16710000</v>
@@ -43252,10 +43256,10 @@
         <v>1</v>
       </c>
       <c r="DN19" s="0">
-        <v>22260</v>
+        <v>22260000</v>
       </c>
       <c r="DO19" s="0">
-        <v>16710</v>
+        <v>16710000</v>
       </c>
       <c r="DP19" s="0">
         <v>95</v>
@@ -43789,7 +43793,7 @@
         <v>1</v>
       </c>
       <c r="DN20" s="0">
-        <v>13752000</v>
+        <v>8037000</v>
       </c>
       <c r="DO20" s="0">
         <v>13890000</v>
@@ -44326,10 +44330,10 @@
         <v>1</v>
       </c>
       <c r="DN21" s="0">
-        <v>13752</v>
+        <v>13752000</v>
       </c>
       <c r="DO21" s="0">
-        <v>13890</v>
+        <v>13890000</v>
       </c>
       <c r="DP21" s="0">
         <v>100</v>
@@ -44860,7 +44864,9 @@
       <c r="DM22" s="0">
         <v>0</v>
       </c>
-      <c r="DN22" s="0"/>
+      <c r="DN22" s="0">
+        <v>6984000</v>
+      </c>
       <c r="DO22" s="0">
         <v>8523137</v>
       </c>
@@ -45389,9 +45395,11 @@
       <c r="DM23" s="0">
         <v>0</v>
       </c>
-      <c r="DN23" s="0"/>
+      <c r="DN23" s="0">
+        <v>5685447</v>
+      </c>
       <c r="DO23" s="0">
-        <v>8523</v>
+        <v>8627000</v>
       </c>
       <c r="DP23" s="0">
         <v>95</v>
@@ -45937,10 +45945,10 @@
         <v>1</v>
       </c>
       <c r="DN24" s="0">
-        <v>119384</v>
+        <v>160037000</v>
       </c>
       <c r="DO24" s="0">
-        <v>133480</v>
+        <v>133480000</v>
       </c>
       <c r="DP24" s="0">
         <v>71</v>
@@ -46490,10 +46498,10 @@
         <v>1</v>
       </c>
       <c r="DN25" s="0">
-        <v>119384</v>
+        <v>119384000</v>
       </c>
       <c r="DO25" s="0">
-        <v>133480</v>
+        <v>133480000</v>
       </c>
       <c r="DP25" s="0">
         <v>71</v>
@@ -47035,10 +47043,10 @@
         <v>1</v>
       </c>
       <c r="DN26" s="0">
-        <v>11674</v>
+        <v>11674000</v>
       </c>
       <c r="DO26" s="0">
-        <v>15955</v>
+        <v>15955000</v>
       </c>
       <c r="DP26" s="0">
         <v>71</v>
@@ -47582,10 +47590,10 @@
         <v>1</v>
       </c>
       <c r="DN27" s="0">
-        <v>11674</v>
+        <v>11674000</v>
       </c>
       <c r="DO27" s="0">
-        <v>15955</v>
+        <v>15955000</v>
       </c>
       <c r="DP27" s="0">
         <v>71</v>
@@ -48121,7 +48129,7 @@
         <v>1</v>
       </c>
       <c r="DN28" s="0">
-        <v>75652000</v>
+        <v>62045000</v>
       </c>
       <c r="DO28" s="0">
         <v>106138000</v>
@@ -48660,10 +48668,10 @@
         <v>1</v>
       </c>
       <c r="DN29" s="0">
-        <v>75652</v>
+        <v>75652000</v>
       </c>
       <c r="DO29" s="0">
-        <v>106138</v>
+        <v>106138000</v>
       </c>
       <c r="DP29" s="0">
         <v>72</v>
@@ -49219,10 +49227,10 @@
         <v>1</v>
       </c>
       <c r="DN30" s="0">
-        <v>45900</v>
+        <v>104714000</v>
       </c>
       <c r="DO30" s="0">
-        <v>52227</v>
+        <v>52227000</v>
       </c>
       <c r="DP30" s="0">
         <v>96</v>
@@ -49780,10 +49788,10 @@
         <v>1</v>
       </c>
       <c r="DN31" s="0">
-        <v>45900</v>
+        <v>45900000</v>
       </c>
       <c r="DO31" s="0">
-        <v>52227</v>
+        <v>52227000</v>
       </c>
       <c r="DP31" s="0">
         <v>96</v>
@@ -50317,7 +50325,7 @@
         <v>1</v>
       </c>
       <c r="DN32" s="0">
-        <v>9668085</v>
+        <v>11677000</v>
       </c>
       <c r="DO32" s="0">
         <v>7370780</v>
@@ -50852,10 +50860,10 @@
         <v>1</v>
       </c>
       <c r="DN33" s="0">
-        <v>9668</v>
+        <v>14210000</v>
       </c>
       <c r="DO33" s="0">
-        <v>7371</v>
+        <v>7371000</v>
       </c>
       <c r="DP33" s="0">
         <v>92.589996337890625</v>
@@ -51379,10 +51387,10 @@
         <v>1</v>
       </c>
       <c r="DN34" s="0">
-        <v>160037</v>
+        <v>12387000</v>
       </c>
       <c r="DO34" s="0">
-        <v>201139</v>
+        <v>201139000</v>
       </c>
       <c r="DP34" s="0">
         <v>80</v>
@@ -51906,10 +51914,10 @@
         <v>1</v>
       </c>
       <c r="DN35" s="0">
-        <v>160037</v>
+        <v>160037000</v>
       </c>
       <c r="DO35" s="0">
-        <v>201139</v>
+        <v>201139000</v>
       </c>
       <c r="DP35" s="0">
         <v>80</v>
@@ -52423,7 +52431,7 @@
         <v>1</v>
       </c>
       <c r="DN36" s="0">
-        <v>11037961</v>
+        <v>83313000</v>
       </c>
       <c r="DO36" s="0">
         <v>10285841</v>
@@ -52940,10 +52948,10 @@
         <v>1</v>
       </c>
       <c r="DN37" s="0">
-        <v>11035</v>
+        <v>11035000</v>
       </c>
       <c r="DO37" s="0">
-        <v>10285</v>
+        <v>10285000</v>
       </c>
       <c r="DP37" s="0">
         <v>91</v>
@@ -53485,7 +53493,7 @@
         <v>1</v>
       </c>
       <c r="DN38" s="0">
-        <v>4938914</v>
+        <v>22363000</v>
       </c>
       <c r="DO38" s="0">
         <v>8502607</v>
@@ -54030,10 +54038,10 @@
         <v>1</v>
       </c>
       <c r="DN39" s="0">
-        <v>4939</v>
+        <v>4939000</v>
       </c>
       <c r="DO39" s="0">
-        <v>8503</v>
+        <v>8503000</v>
       </c>
       <c r="DP39" s="0">
         <v>90</v>
@@ -54575,7 +54583,7 @@
         <v>1</v>
       </c>
       <c r="DN40" s="0">
-        <v>16180368</v>
+        <v>32938000</v>
       </c>
       <c r="DO40" s="0">
         <v>12525600</v>
@@ -55120,10 +55128,10 @@
         <v>1</v>
       </c>
       <c r="DN41" s="0">
-        <v>16180</v>
+        <v>11674000</v>
       </c>
       <c r="DO41" s="0">
-        <v>12525</v>
+        <v>12525000</v>
       </c>
       <c r="DP41" s="0">
         <v>91</v>
@@ -55645,7 +55653,7 @@
         <v>1</v>
       </c>
       <c r="DN42" s="0">
-        <v>3663336</v>
+        <v>18726000</v>
       </c>
       <c r="DO42" s="0">
         <v>5599000</v>
@@ -56170,10 +56178,10 @@
         <v>1</v>
       </c>
       <c r="DN43" s="0">
-        <v>3663</v>
+        <v>10638000</v>
       </c>
       <c r="DO43" s="0">
-        <v>5599</v>
+        <v>5599000</v>
       </c>
       <c r="DP43" s="0">
         <v>80</v>
@@ -56705,10 +56713,10 @@
         <v>1</v>
       </c>
       <c r="DN44" s="0">
-        <v>12459</v>
+        <v>16529000</v>
       </c>
       <c r="DO44" s="0">
-        <v>10941</v>
+        <v>10941000</v>
       </c>
       <c r="DP44" s="0">
         <v>93</v>
@@ -57244,10 +57252,10 @@
         <v>1</v>
       </c>
       <c r="DN45" s="0">
-        <v>12459</v>
+        <v>12459000</v>
       </c>
       <c r="DO45" s="0">
-        <v>10941</v>
+        <v>10941000</v>
       </c>
       <c r="DP45" s="0">
         <v>93</v>
@@ -57783,7 +57791,7 @@
         <v>1</v>
       </c>
       <c r="DN46" s="0">
-        <v>4823525</v>
+        <v>8590000</v>
       </c>
       <c r="DO46" s="0">
         <v>10799300</v>
@@ -58316,10 +58324,10 @@
         <v>1</v>
       </c>
       <c r="DN47" s="0">
-        <v>4823</v>
+        <v>4823000</v>
       </c>
       <c r="DO47" s="0">
-        <v>10799</v>
+        <v>10799000</v>
       </c>
       <c r="DP47" s="0">
         <v>87</v>
@@ -58862,7 +58870,9 @@
       <c r="DM48" s="0">
         <v>0</v>
       </c>
-      <c r="DN48" s="0"/>
+      <c r="DN48" s="0">
+        <v>44913000</v>
+      </c>
       <c r="DO48" s="0">
         <v>36264000</v>
       </c>
@@ -59413,9 +59423,11 @@
       <c r="DM49" s="0">
         <v>0</v>
       </c>
-      <c r="DN49" s="0"/>
+      <c r="DN49" s="0">
+        <v>45686594</v>
+      </c>
       <c r="DO49" s="0">
-        <v>36264000</v>
+        <v>36264202</v>
       </c>
       <c r="DP49" s="0">
         <v>75.919998168945313</v>
@@ -59958,7 +59970,9 @@
       <c r="DM50" s="0">
         <v>0</v>
       </c>
-      <c r="DN50" s="0"/>
+      <c r="DN50" s="0">
+        <v>2984000</v>
+      </c>
       <c r="DO50" s="0">
         <v>17065600</v>
       </c>
@@ -60499,9 +60513,11 @@
       <c r="DM51" s="0">
         <v>0</v>
       </c>
-      <c r="DN51" s="0"/>
+      <c r="DN51" s="0">
+        <v>19570086</v>
+      </c>
       <c r="DO51" s="0">
-        <v>17066</v>
+        <v>17066000</v>
       </c>
       <c r="DP51" s="0">
         <v>77.769996643066406</v>
@@ -61047,10 +61063,10 @@
         <v>1</v>
       </c>
       <c r="DN52" s="0">
-        <v>32938</v>
+        <v>50508000</v>
       </c>
       <c r="DO52" s="0">
-        <v>43694</v>
+        <v>43694000</v>
       </c>
       <c r="DP52" s="0">
         <v>96</v>
@@ -61598,10 +61614,10 @@
         <v>1</v>
       </c>
       <c r="DN53" s="0">
-        <v>32938</v>
+        <v>32938000</v>
       </c>
       <c r="DO53" s="0">
-        <v>43694</v>
+        <v>43694000</v>
       </c>
       <c r="DP53" s="0">
         <v>96</v>
@@ -62129,7 +62145,7 @@
         <v>1</v>
       </c>
       <c r="DN54" s="0">
-        <v>24600542</v>
+        <v>15148000</v>
       </c>
       <c r="DO54" s="0">
         <v>30712514</v>
@@ -62658,10 +62674,10 @@
         <v>1</v>
       </c>
       <c r="DN55" s="0">
-        <v>24600</v>
+        <v>53968100</v>
       </c>
       <c r="DO55" s="0">
-        <v>30712</v>
+        <v>30712000</v>
       </c>
       <c r="DP55" s="0">
         <v>98</v>
@@ -63197,7 +63213,7 @@
         <v>1</v>
       </c>
       <c r="DN56" s="0">
-        <v>9211277</v>
+        <v>49850000</v>
       </c>
       <c r="DO56" s="0">
         <v>5058880</v>
@@ -64279,10 +64295,10 @@
         <v>1</v>
       </c>
       <c r="DN58" s="0">
-        <v>9211</v>
+        <v>9211000</v>
       </c>
       <c r="DO58" s="0">
-        <v>5059</v>
+        <v>5059000</v>
       </c>
       <c r="DP58" s="0">
         <v>68</v>
@@ -64812,7 +64828,7 @@
         <v>1</v>
       </c>
       <c r="DN59" s="0">
-        <v>5244031</v>
+        <v>19665000</v>
       </c>
       <c r="DO59" s="0">
         <v>6943153</v>
@@ -65343,10 +65359,10 @@
         <v>1</v>
       </c>
       <c r="DN60" s="0">
-        <v>5244</v>
+        <v>5244000</v>
       </c>
       <c r="DO60" s="0">
-        <v>6943</v>
+        <v>6943000</v>
       </c>
       <c r="DP60" s="0">
         <v>80</v>
@@ -65609,7 +65625,7 @@
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>1521</v>
+        <v>406</v>
       </c>
       <c r="F61" t="s">
         <v>64</v>
@@ -65880,10 +65896,10 @@
         <v>1</v>
       </c>
       <c r="DN61" s="0">
-        <v>4040</v>
+        <v>19059000</v>
       </c>
       <c r="DO61" s="0">
-        <v>14583</v>
+        <v>14583000</v>
       </c>
       <c r="DP61" s="0">
         <v>79.110000610351563</v>
@@ -66150,7 +66166,7 @@
         <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>1521</v>
+        <v>406</v>
       </c>
       <c r="F62" t="s">
         <v>64</v>
@@ -66413,10 +66429,10 @@
         <v>1</v>
       </c>
       <c r="DN62" s="0">
-        <v>4040</v>
+        <v>119384000</v>
       </c>
       <c r="DO62" s="0">
-        <v>14583</v>
+        <v>14583000</v>
       </c>
       <c r="DP62" s="0">
         <v>79.110000610351563</v>
@@ -66956,10 +66972,10 @@
         <v>1</v>
       </c>
       <c r="DN63" s="0">
-        <v>7219</v>
+        <v>14170000</v>
       </c>
       <c r="DO63" s="0">
-        <v>7565</v>
+        <v>7565000</v>
       </c>
       <c r="DP63" s="0">
         <v>83</v>
@@ -67497,10 +67513,10 @@
         <v>1</v>
       </c>
       <c r="DN64" s="0">
-        <v>7219</v>
+        <v>7219000</v>
       </c>
       <c r="DO64" s="0">
-        <v>7565</v>
+        <v>7565000</v>
       </c>
       <c r="DP64" s="0">
         <v>83</v>
@@ -68030,7 +68046,7 @@
         <v>1</v>
       </c>
       <c r="DN65" s="0">
-        <v>8037164</v>
+        <v>3030000</v>
       </c>
       <c r="DO65" s="0">
         <v>8425145</v>
@@ -68563,10 +68579,10 @@
         <v>1</v>
       </c>
       <c r="DN66" s="0">
-        <v>8037</v>
+        <v>8037000</v>
       </c>
       <c r="DO66" s="0">
-        <v>8425</v>
+        <v>8425000</v>
       </c>
       <c r="DP66" s="0">
         <v>88.879997253417969</v>
@@ -69110,10 +69126,10 @@
         <v>1</v>
       </c>
       <c r="DN67" s="0">
-        <v>83313</v>
+        <v>6554000</v>
       </c>
       <c r="DO67" s="0">
-        <v>67715</v>
+        <v>6771500</v>
       </c>
       <c r="DP67" s="0">
         <v>90</v>
@@ -69657,10 +69673,10 @@
         <v>1</v>
       </c>
       <c r="DN68" s="0">
-        <v>83313</v>
+        <v>83313000</v>
       </c>
       <c r="DO68" s="0">
-        <v>67715</v>
+        <v>67715000</v>
       </c>
       <c r="DP68" s="0">
         <v>90</v>
@@ -70717,10 +70733,10 @@
         <v>1</v>
       </c>
       <c r="DN70" s="0">
-        <v>2984</v>
+        <v>2984000</v>
       </c>
       <c r="DO70" s="0">
-        <v>8389</v>
+        <v>8389000</v>
       </c>
       <c r="DP70" s="0">
         <v>96</v>
@@ -71262,7 +71278,7 @@
         <v>1</v>
       </c>
       <c r="DN71" s="0">
-        <v>19664703</v>
+        <v>30435000</v>
       </c>
       <c r="DO71" s="0">
         <v>19930256</v>
@@ -71801,7 +71817,7 @@
         <v>1</v>
       </c>
       <c r="DN72" s="0">
-        <v>19664703</v>
+        <v>12459000</v>
       </c>
       <c r="DO72" s="0">
         <v>19930256</v>
@@ -72340,10 +72356,10 @@
         <v>1</v>
       </c>
       <c r="DN73" s="0">
-        <v>19665</v>
+        <v>19665000</v>
       </c>
       <c r="DO73" s="0">
-        <v>19930</v>
+        <v>19930000</v>
       </c>
       <c r="DP73" s="0">
         <v>100</v>
@@ -72879,10 +72895,10 @@
         <v>1</v>
       </c>
       <c r="DN74" s="0">
-        <v>374010</v>
+        <v>119384000</v>
       </c>
       <c r="DO74" s="0">
-        <v>349839</v>
+        <v>349839000</v>
       </c>
       <c r="DP74" s="0">
         <v>100</v>
@@ -73410,10 +73426,10 @@
         <v>1</v>
       </c>
       <c r="DN75" s="0">
-        <v>768080</v>
+        <v>768080000</v>
       </c>
       <c r="DO75" s="0">
-        <v>1190864</v>
+        <v>1190864000</v>
       </c>
       <c r="DP75" s="0">
         <v>73.010002136230469</v>

--- a/data/etc/2015/duplicates.xlsx
+++ b/data/etc/2015/duplicates.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302238" uniqueCount="2546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312660" uniqueCount="2546">
   <si>
     <t>submissiondate</t>
   </si>
@@ -14411,10 +14411,10 @@
         <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s">
         <v>397</v>
@@ -14438,7 +14438,7 @@
         <v>89</v>
       </c>
       <c r="K40" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L40" s="0">
         <v>76177548</v>
@@ -14458,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T40" s="0">
         <v>4</v>
@@ -14482,7 +14482,7 @@
         <v>3</v>
       </c>
       <c r="AA40" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AB40" t="s">
         <v>623</v>
@@ -14494,19 +14494,19 @@
         <v>71261266</v>
       </c>
       <c r="AE40" s="0">
-        <v>12.182655334472656</v>
+        <v>12.182876586914063</v>
       </c>
       <c r="AF40" s="0">
-        <v>-1.5550374984741211</v>
+        <v>-1.5550318956375122</v>
       </c>
       <c r="AG40" s="0">
-        <v>330.74627685546875</v>
+        <v>339.3597412109375</v>
       </c>
       <c r="AH40" s="0">
         <v>4</v>
       </c>
       <c r="AI40" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AJ40" t="s">
         <v>745</v>
@@ -14515,7 +14515,7 @@
         <v>72016</v>
       </c>
       <c r="AL40" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AM40" s="0">
         <v>1</v>
@@ -14529,10 +14529,10 @@
         <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D41" t="s">
         <v>397</v>
@@ -14556,7 +14556,7 @@
         <v>89</v>
       </c>
       <c r="K41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L41" s="0">
         <v>76177548</v>
@@ -14576,7 +14576,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T41" s="0">
         <v>4</v>
@@ -14600,7 +14600,7 @@
         <v>3</v>
       </c>
       <c r="AA41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AB41" t="s">
         <v>623</v>
@@ -14612,19 +14612,19 @@
         <v>71261266</v>
       </c>
       <c r="AE41" s="0">
-        <v>12.182876586914063</v>
+        <v>12.182655334472656</v>
       </c>
       <c r="AF41" s="0">
-        <v>-1.5550318956375122</v>
+        <v>-1.5550374984741211</v>
       </c>
       <c r="AG41" s="0">
-        <v>339.3597412109375</v>
+        <v>330.74627685546875</v>
       </c>
       <c r="AH41" s="0">
         <v>4</v>
       </c>
       <c r="AI41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ41" t="s">
         <v>745</v>
@@ -14633,7 +14633,7 @@
         <v>72016</v>
       </c>
       <c r="AL41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AM41" s="0">
         <v>1</v>
@@ -17361,13 +17361,13 @@
         <v>222</v>
       </c>
       <c r="B65" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C65" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D65" t="s">
-        <v>396</v>
+        <v>50</v>
       </c>
       <c r="E65" t="s">
         <v>411</v>
@@ -17424,13 +17424,13 @@
         <v>571</v>
       </c>
       <c r="Y65" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z65" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA65" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AB65" t="s">
         <v>633</v>
@@ -17442,19 +17442,19 @@
         <v>70746732</v>
       </c>
       <c r="AE65" s="0">
-        <v>14.029009819030762</v>
+        <v>14.033710479736328</v>
       </c>
       <c r="AF65" s="0">
-        <v>-0.032633930444717407</v>
+        <v>-0.031045390293002129</v>
       </c>
       <c r="AG65" s="0">
-        <v>304.89999389648438</v>
+        <v>301.39999389648437</v>
       </c>
       <c r="AH65" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI65" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AJ65" t="s">
         <v>757</v>
@@ -17463,7 +17463,7 @@
         <v>72016</v>
       </c>
       <c r="AL65" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AM65" s="0">
         <v>1</v>
@@ -17477,13 +17477,13 @@
         <v>222</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>396</v>
       </c>
       <c r="E66" t="s">
         <v>411</v>
@@ -17540,13 +17540,13 @@
         <v>571</v>
       </c>
       <c r="Y66" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z66" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA66" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AB66" t="s">
         <v>633</v>
@@ -17558,19 +17558,19 @@
         <v>70746732</v>
       </c>
       <c r="AE66" s="0">
-        <v>14.033710479736328</v>
+        <v>14.029009819030762</v>
       </c>
       <c r="AF66" s="0">
-        <v>-0.031045390293002129</v>
+        <v>-0.032633930444717407</v>
       </c>
       <c r="AG66" s="0">
-        <v>301.39999389648437</v>
+        <v>304.89999389648438</v>
       </c>
       <c r="AH66" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AJ66" t="s">
         <v>757</v>
@@ -17579,7 +17579,7 @@
         <v>72016</v>
       </c>
       <c r="AL66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM66" s="0">
         <v>1</v>
@@ -18065,13 +18065,13 @@
         <v>222</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C71" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>396</v>
       </c>
       <c r="E71" t="s">
         <v>411</v>
@@ -18127,16 +18127,16 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Y71" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z71" s="0">
         <v>3</v>
       </c>
       <c r="AA71" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AB71" t="s">
         <v>633</v>
@@ -18148,19 +18148,19 @@
         <v>70746732</v>
       </c>
       <c r="AE71" s="0">
-        <v>14.033783912658691</v>
+        <v>14.029053688049316</v>
       </c>
       <c r="AF71" s="0">
-        <v>-0.031044170260429382</v>
+        <v>-0.03261445090174675</v>
       </c>
       <c r="AG71" s="0">
-        <v>303.79998779296875</v>
+        <v>308.5</v>
       </c>
       <c r="AH71" s="0">
         <v>5</v>
       </c>
       <c r="AI71" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AJ71" t="s">
         <v>760</v>
@@ -18169,7 +18169,7 @@
         <v>72016</v>
       </c>
       <c r="AL71" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM71" s="0">
         <v>1</v>
@@ -18183,13 +18183,13 @@
         <v>222</v>
       </c>
       <c r="B72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="D72" t="s">
-        <v>396</v>
+        <v>50</v>
       </c>
       <c r="E72" t="s">
         <v>411</v>
@@ -18245,16 +18245,16 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Y72" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z72" s="0">
         <v>3</v>
       </c>
       <c r="AA72" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AB72" t="s">
         <v>633</v>
@@ -18266,19 +18266,19 @@
         <v>70746732</v>
       </c>
       <c r="AE72" s="0">
-        <v>14.029053688049316</v>
+        <v>14.033783912658691</v>
       </c>
       <c r="AF72" s="0">
-        <v>-0.03261445090174675</v>
+        <v>-0.031044170260429382</v>
       </c>
       <c r="AG72" s="0">
-        <v>308.5</v>
+        <v>303.79998779296875</v>
       </c>
       <c r="AH72" s="0">
         <v>5</v>
       </c>
       <c r="AI72" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AJ72" t="s">
         <v>760</v>
@@ -18287,7 +18287,7 @@
         <v>72016</v>
       </c>
       <c r="AL72" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AM72" s="0">
         <v>1</v>
@@ -21876,16 +21876,16 @@
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C16" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
         <v>65</v>
@@ -21906,13 +21906,13 @@
         <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="M16" s="0">
-        <v>78826743</v>
+        <v>72166910</v>
       </c>
       <c r="N16" s="0">
-        <v>78826743</v>
+        <v>72166910</v>
       </c>
       <c r="O16" s="0"/>
       <c r="P16" s="0">
@@ -21923,10 +21923,10 @@
         <v>2</v>
       </c>
       <c r="S16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="s">
         <v>130</v>
@@ -21938,19 +21938,19 @@
         <v>79146080</v>
       </c>
       <c r="X16" s="0">
-        <v>10.663545608520508</v>
+        <v>10.642724990844727</v>
       </c>
       <c r="Y16" s="0">
-        <v>-4.7367901802062988</v>
+        <v>-4.7599368095397949</v>
       </c>
       <c r="Z16" s="0">
-        <v>330.48666381835937</v>
+        <v>343.13467407226562</v>
       </c>
       <c r="AA16" s="0">
         <v>4</v>
       </c>
       <c r="AB16" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="AC16" t="s">
         <v>1316</v>
@@ -21959,7 +21959,7 @@
         <v>72016</v>
       </c>
       <c r="AE16" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="AF16" s="0">
         <v>1</v>
@@ -21973,16 +21973,16 @@
         <v>214</v>
       </c>
       <c r="B17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
         <v>65</v>
@@ -22003,13 +22003,13 @@
         <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="M17" s="0">
-        <v>72166910</v>
+        <v>78826743</v>
       </c>
       <c r="N17" s="0">
-        <v>72166910</v>
+        <v>78826743</v>
       </c>
       <c r="O17" s="0"/>
       <c r="P17" s="0">
@@ -22020,10 +22020,10 @@
         <v>2</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="s">
         <v>130</v>
@@ -22035,19 +22035,19 @@
         <v>79146080</v>
       </c>
       <c r="X17" s="0">
-        <v>10.642724990844727</v>
+        <v>10.663545608520508</v>
       </c>
       <c r="Y17" s="0">
-        <v>-4.7599368095397949</v>
+        <v>-4.7367901802062988</v>
       </c>
       <c r="Z17" s="0">
-        <v>343.13467407226562</v>
+        <v>330.48666381835937</v>
       </c>
       <c r="AA17" s="0">
         <v>4</v>
       </c>
       <c r="AB17" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AC17" t="s">
         <v>1316</v>
@@ -22056,7 +22056,7 @@
         <v>72016</v>
       </c>
       <c r="AE17" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AF17" s="0">
         <v>1</v>
@@ -22458,13 +22458,13 @@
         <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C22" t="s">
-        <v>912</v>
+        <v>819</v>
       </c>
       <c r="D22" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>411</v>
@@ -22491,10 +22491,10 @@
         <v>1107</v>
       </c>
       <c r="M22" s="0">
-        <v>71296550</v>
+        <v>79942493</v>
       </c>
       <c r="N22" s="0">
-        <v>70028480</v>
+        <v>79942493</v>
       </c>
       <c r="O22" s="0"/>
       <c r="P22" s="0">
@@ -22508,7 +22508,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U22" t="s">
         <v>633</v>
@@ -22520,19 +22520,19 @@
         <v>70746732</v>
       </c>
       <c r="X22" s="0">
-        <v>14.029008865356445</v>
+        <v>14.036481857299805</v>
       </c>
       <c r="Y22" s="0">
-        <v>-0.032635558396577835</v>
+        <v>-0.032864119857549667</v>
       </c>
       <c r="Z22" s="0">
-        <v>306.39999389648437</v>
+        <v>305.60000610351562</v>
       </c>
       <c r="AA22" s="0">
         <v>5</v>
       </c>
       <c r="AB22" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AC22" t="s">
         <v>1317</v>
@@ -22541,7 +22541,7 @@
         <v>72016</v>
       </c>
       <c r="AE22" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AF22" s="0">
         <v>3</v>
@@ -22555,13 +22555,13 @@
         <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C23" t="s">
-        <v>819</v>
+        <v>912</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="E23" t="s">
         <v>411</v>
@@ -22588,10 +22588,10 @@
         <v>1107</v>
       </c>
       <c r="M23" s="0">
-        <v>79942493</v>
+        <v>71296550</v>
       </c>
       <c r="N23" s="0">
-        <v>79942493</v>
+        <v>70028480</v>
       </c>
       <c r="O23" s="0"/>
       <c r="P23" s="0">
@@ -22605,7 +22605,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U23" t="s">
         <v>633</v>
@@ -22617,19 +22617,19 @@
         <v>70746732</v>
       </c>
       <c r="X23" s="0">
-        <v>14.036481857299805</v>
+        <v>14.029008865356445</v>
       </c>
       <c r="Y23" s="0">
-        <v>-0.032864119857549667</v>
+        <v>-0.032635558396577835</v>
       </c>
       <c r="Z23" s="0">
-        <v>305.60000610351562</v>
+        <v>306.39999389648437</v>
       </c>
       <c r="AA23" s="0">
         <v>5</v>
       </c>
       <c r="AB23" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AC23" t="s">
         <v>1317</v>
@@ -22638,7 +22638,7 @@
         <v>72016</v>
       </c>
       <c r="AE23" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AF23" s="0">
         <v>3</v>
@@ -25271,13 +25271,13 @@
         <v>782</v>
       </c>
       <c r="B51" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C51" t="s">
-        <v>935</v>
+        <v>842</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="E51" t="s">
         <v>411</v>
@@ -25301,13 +25301,13 @@
         <v>89</v>
       </c>
       <c r="L51" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="M51" s="0">
         <v>79867954</v>
       </c>
       <c r="N51" s="0">
-        <v>79867954</v>
+        <v>71296552</v>
       </c>
       <c r="O51" s="0"/>
       <c r="P51" s="0">
@@ -25315,16 +25315,16 @@
       </c>
       <c r="Q51" s="0"/>
       <c r="R51" s="0">
+        <v>3</v>
+      </c>
+      <c r="S51" s="0">
+        <v>1</v>
+      </c>
+      <c r="T51" s="0">
         <v>4</v>
       </c>
-      <c r="S51" s="0">
-        <v>1</v>
-      </c>
-      <c r="T51" s="0">
-        <v>5</v>
-      </c>
       <c r="U51" t="s">
-        <v>1174</v>
+        <v>633</v>
       </c>
       <c r="V51" s="0">
         <v>70746732</v>
@@ -25333,19 +25333,19 @@
         <v>70746732</v>
       </c>
       <c r="X51" s="0">
-        <v>14.036473274230957</v>
+        <v>14.02900505065918</v>
       </c>
       <c r="Y51" s="0">
-        <v>-0.03301481157541275</v>
+        <v>-0.032617561519145966</v>
       </c>
       <c r="Z51" s="0">
-        <v>308.29998779296875</v>
+        <v>305.5</v>
       </c>
       <c r="AA51" s="0">
         <v>5</v>
       </c>
       <c r="AB51" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="AC51" t="s">
         <v>1320</v>
@@ -25354,7 +25354,7 @@
         <v>72016</v>
       </c>
       <c r="AE51" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="AF51" s="0">
         <v>3</v>
@@ -25368,13 +25368,13 @@
         <v>782</v>
       </c>
       <c r="B52" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C52" t="s">
-        <v>842</v>
+        <v>935</v>
       </c>
       <c r="D52" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
         <v>411</v>
@@ -25398,13 +25398,13 @@
         <v>89</v>
       </c>
       <c r="L52" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="M52" s="0">
         <v>79867954</v>
       </c>
       <c r="N52" s="0">
-        <v>71296552</v>
+        <v>79867954</v>
       </c>
       <c r="O52" s="0"/>
       <c r="P52" s="0">
@@ -25412,16 +25412,16 @@
       </c>
       <c r="Q52" s="0"/>
       <c r="R52" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S52" s="0">
         <v>1</v>
       </c>
       <c r="T52" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U52" t="s">
-        <v>633</v>
+        <v>1174</v>
       </c>
       <c r="V52" s="0">
         <v>70746732</v>
@@ -25430,19 +25430,19 @@
         <v>70746732</v>
       </c>
       <c r="X52" s="0">
-        <v>14.02900505065918</v>
+        <v>14.036473274230957</v>
       </c>
       <c r="Y52" s="0">
-        <v>-0.032617561519145966</v>
+        <v>-0.03301481157541275</v>
       </c>
       <c r="Z52" s="0">
-        <v>305.5</v>
+        <v>308.29998779296875</v>
       </c>
       <c r="AA52" s="0">
         <v>5</v>
       </c>
       <c r="AB52" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AC52" t="s">
         <v>1320</v>
@@ -25451,7 +25451,7 @@
         <v>72016</v>
       </c>
       <c r="AE52" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AF52" s="0">
         <v>3</v>
@@ -25853,13 +25853,13 @@
         <v>782</v>
       </c>
       <c r="B57" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C57" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="E57" t="s">
         <v>411</v>
@@ -25886,7 +25886,7 @@
         <v>1125</v>
       </c>
       <c r="M57" s="0">
-        <v>79664235</v>
+        <v>71296557</v>
       </c>
       <c r="N57" s="0">
         <v>79664235</v>
@@ -25897,13 +25897,13 @@
       </c>
       <c r="Q57" s="0"/>
       <c r="R57" s="0">
+        <v>2</v>
+      </c>
+      <c r="S57" s="0">
+        <v>1</v>
+      </c>
+      <c r="T57" s="0">
         <v>5</v>
-      </c>
-      <c r="S57" s="0">
-        <v>1</v>
-      </c>
-      <c r="T57" s="0">
-        <v>7</v>
       </c>
       <c r="U57" t="s">
         <v>633</v>
@@ -25915,19 +25915,19 @@
         <v>70746732</v>
       </c>
       <c r="X57" s="0">
-        <v>14.036609649658203</v>
+        <v>14.029008865356445</v>
       </c>
       <c r="Y57" s="0">
-        <v>-0.032943520694971085</v>
+        <v>-0.032592598348855972</v>
       </c>
       <c r="Z57" s="0">
-        <v>313.60000610351562</v>
+        <v>312.10000610351562</v>
       </c>
       <c r="AA57" s="0">
         <v>5</v>
       </c>
       <c r="AB57" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AC57" t="s">
         <v>1320</v>
@@ -25936,7 +25936,7 @@
         <v>72016</v>
       </c>
       <c r="AE57" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AF57" s="0">
         <v>3</v>
@@ -25950,13 +25950,13 @@
         <v>782</v>
       </c>
       <c r="B58" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C58" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D58" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
         <v>411</v>
@@ -25983,7 +25983,7 @@
         <v>1125</v>
       </c>
       <c r="M58" s="0">
-        <v>71296557</v>
+        <v>79664235</v>
       </c>
       <c r="N58" s="0">
         <v>79664235</v>
@@ -25994,13 +25994,13 @@
       </c>
       <c r="Q58" s="0"/>
       <c r="R58" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S58" s="0">
         <v>1</v>
       </c>
       <c r="T58" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U58" t="s">
         <v>633</v>
@@ -26012,19 +26012,19 @@
         <v>70746732</v>
       </c>
       <c r="X58" s="0">
-        <v>14.029008865356445</v>
+        <v>14.036609649658203</v>
       </c>
       <c r="Y58" s="0">
-        <v>-0.032592598348855972</v>
+        <v>-0.032943520694971085</v>
       </c>
       <c r="Z58" s="0">
-        <v>312.10000610351562</v>
+        <v>313.60000610351562</v>
       </c>
       <c r="AA58" s="0">
         <v>5</v>
       </c>
       <c r="AB58" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AC58" t="s">
         <v>1320</v>
@@ -26033,7 +26033,7 @@
         <v>72016</v>
       </c>
       <c r="AE58" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AF58" s="0">
         <v>3</v>
@@ -26047,13 +26047,13 @@
         <v>776</v>
       </c>
       <c r="B59" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C59" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D59" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
         <v>411</v>
@@ -26080,10 +26080,10 @@
         <v>1125</v>
       </c>
       <c r="M59" s="0">
+        <v>79664235</v>
+      </c>
+      <c r="N59" s="0">
         <v>71296557</v>
-      </c>
-      <c r="N59" s="0">
-        <v>79664235</v>
       </c>
       <c r="O59" s="0"/>
       <c r="P59" s="0">
@@ -26091,13 +26091,13 @@
       </c>
       <c r="Q59" s="0"/>
       <c r="R59" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S59" s="0">
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U59" t="s">
         <v>633</v>
@@ -26109,19 +26109,19 @@
         <v>70746732</v>
       </c>
       <c r="X59" s="0">
-        <v>14.029008865356445</v>
+        <v>14.036609649658203</v>
       </c>
       <c r="Y59" s="0">
-        <v>-0.032592598348855972</v>
+        <v>-0.032943520694971085</v>
       </c>
       <c r="Z59" s="0">
-        <v>312.10000610351562</v>
+        <v>313.60000610351562</v>
       </c>
       <c r="AA59" s="0">
         <v>5</v>
       </c>
       <c r="AB59" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AC59" t="s">
         <v>1320</v>
@@ -26130,7 +26130,7 @@
         <v>72016</v>
       </c>
       <c r="AE59" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AF59" s="0">
         <v>3</v>
@@ -26144,13 +26144,13 @@
         <v>776</v>
       </c>
       <c r="B60" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C60" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="E60" t="s">
         <v>411</v>
@@ -26177,10 +26177,10 @@
         <v>1125</v>
       </c>
       <c r="M60" s="0">
+        <v>71296557</v>
+      </c>
+      <c r="N60" s="0">
         <v>79664235</v>
-      </c>
-      <c r="N60" s="0">
-        <v>71296557</v>
       </c>
       <c r="O60" s="0"/>
       <c r="P60" s="0">
@@ -26188,13 +26188,13 @@
       </c>
       <c r="Q60" s="0"/>
       <c r="R60" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U60" t="s">
         <v>633</v>
@@ -26206,19 +26206,19 @@
         <v>70746732</v>
       </c>
       <c r="X60" s="0">
-        <v>14.036609649658203</v>
+        <v>14.029008865356445</v>
       </c>
       <c r="Y60" s="0">
-        <v>-0.032943520694971085</v>
+        <v>-0.032592598348855972</v>
       </c>
       <c r="Z60" s="0">
-        <v>313.60000610351562</v>
+        <v>312.10000610351562</v>
       </c>
       <c r="AA60" s="0">
         <v>5</v>
       </c>
       <c r="AB60" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AC60" t="s">
         <v>1320</v>
@@ -26227,7 +26227,7 @@
         <v>72016</v>
       </c>
       <c r="AE60" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AF60" s="0">
         <v>3</v>
@@ -30701,10 +30701,10 @@
         <v>782</v>
       </c>
       <c r="B107" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C107" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D107" t="s">
         <v>45</v>
@@ -30734,7 +30734,7 @@
         <v>1151</v>
       </c>
       <c r="M107" s="0">
-        <v>71296554</v>
+        <v>70035628</v>
       </c>
       <c r="N107" s="0">
         <v>71296554</v>
@@ -30763,19 +30763,19 @@
         <v>70746732</v>
       </c>
       <c r="X107" s="0">
-        <v>14.036513328552246</v>
+        <v>13.752680778503418</v>
       </c>
       <c r="Y107" s="0">
-        <v>-0.032899491488933563</v>
+        <v>0.21721181273460388</v>
       </c>
       <c r="Z107" s="0">
-        <v>303.5</v>
+        <v>307.39999389648437</v>
       </c>
       <c r="AA107" s="0">
         <v>5</v>
       </c>
       <c r="AB107" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="AC107" t="s">
         <v>1335</v>
@@ -30784,7 +30784,7 @@
         <v>72016</v>
       </c>
       <c r="AE107" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="AF107" s="0">
         <v>1</v>
@@ -30798,10 +30798,10 @@
         <v>782</v>
       </c>
       <c r="B108" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C108" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D108" t="s">
         <v>45</v>
@@ -30831,7 +30831,7 @@
         <v>1151</v>
       </c>
       <c r="M108" s="0">
-        <v>70035628</v>
+        <v>71296554</v>
       </c>
       <c r="N108" s="0">
         <v>71296554</v>
@@ -30860,19 +30860,19 @@
         <v>70746732</v>
       </c>
       <c r="X108" s="0">
-        <v>13.752680778503418</v>
+        <v>14.036513328552246</v>
       </c>
       <c r="Y108" s="0">
-        <v>0.21721181273460388</v>
+        <v>-0.032899491488933563</v>
       </c>
       <c r="Z108" s="0">
-        <v>307.39999389648437</v>
+        <v>303.5</v>
       </c>
       <c r="AA108" s="0">
         <v>5</v>
       </c>
       <c r="AB108" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="AC108" t="s">
         <v>1335</v>
@@ -30881,7 +30881,7 @@
         <v>72016</v>
       </c>
       <c r="AE108" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="AF108" s="0">
         <v>1</v>
@@ -32055,10 +32055,10 @@
         <v>775</v>
       </c>
       <c r="B121" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C121" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D121" t="s">
         <v>46</v>
@@ -32085,13 +32085,13 @@
         <v>89</v>
       </c>
       <c r="L121" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="M121" s="0">
-        <v>68463775</v>
+        <v>76493199</v>
       </c>
       <c r="N121" s="0">
-        <v>68463775</v>
+        <v>76493199</v>
       </c>
       <c r="O121" s="0"/>
       <c r="P121" s="0">
@@ -32105,7 +32105,7 @@
         <v>0</v>
       </c>
       <c r="T121" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U121" t="s">
         <v>130</v>
@@ -32117,19 +32117,19 @@
         <v>79146080</v>
       </c>
       <c r="X121" s="0">
-        <v>10.663528442382813</v>
+        <v>10.663491249084473</v>
       </c>
       <c r="Y121" s="0">
-        <v>-4.7367877960205078</v>
+        <v>-4.7367987632751465</v>
       </c>
       <c r="Z121" s="0">
-        <v>329.90121459960937</v>
+        <v>347.54165649414062</v>
       </c>
       <c r="AA121" s="0">
         <v>4</v>
       </c>
       <c r="AB121" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AC121" t="s">
         <v>1341</v>
@@ -32138,7 +32138,7 @@
         <v>72016</v>
       </c>
       <c r="AE121" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AF121" s="0">
         <v>1</v>
@@ -32152,10 +32152,10 @@
         <v>775</v>
       </c>
       <c r="B122" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C122" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D122" t="s">
         <v>46</v>
@@ -32182,13 +32182,13 @@
         <v>89</v>
       </c>
       <c r="L122" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="M122" s="0">
-        <v>76493199</v>
+        <v>68463775</v>
       </c>
       <c r="N122" s="0">
-        <v>76493199</v>
+        <v>68463775</v>
       </c>
       <c r="O122" s="0"/>
       <c r="P122" s="0">
@@ -32202,7 +32202,7 @@
         <v>0</v>
       </c>
       <c r="T122" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U122" t="s">
         <v>130</v>
@@ -32214,19 +32214,19 @@
         <v>79146080</v>
       </c>
       <c r="X122" s="0">
-        <v>10.663491249084473</v>
+        <v>10.663528442382813</v>
       </c>
       <c r="Y122" s="0">
-        <v>-4.7367987632751465</v>
+        <v>-4.7367877960205078</v>
       </c>
       <c r="Z122" s="0">
-        <v>347.54165649414062</v>
+        <v>329.90121459960937</v>
       </c>
       <c r="AA122" s="0">
         <v>4</v>
       </c>
       <c r="AB122" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="AC122" t="s">
         <v>1341</v>
@@ -32235,7 +32235,7 @@
         <v>72016</v>
       </c>
       <c r="AE122" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="AF122" s="0">
         <v>1</v>
@@ -32637,10 +32637,10 @@
         <v>806</v>
       </c>
       <c r="B127" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C127" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D127" t="s">
         <v>45</v>
@@ -32681,16 +32681,16 @@
       </c>
       <c r="Q127" s="0"/>
       <c r="R127" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S127" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U127" t="s">
-        <v>628</v>
+        <v>1186</v>
       </c>
       <c r="V127" s="0">
         <v>71938391</v>
@@ -32699,19 +32699,19 @@
         <v>75448501</v>
       </c>
       <c r="X127" s="0">
-        <v>12.245701789855957</v>
+        <v>12.245555877685547</v>
       </c>
       <c r="Y127" s="0">
-        <v>-0.60631304979324341</v>
+        <v>-0.60626500844955444</v>
       </c>
       <c r="Z127" s="0">
-        <v>336.67626953125</v>
+        <v>374.84298706054687</v>
       </c>
       <c r="AA127" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AB127" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AC127" t="s">
         <v>1344</v>
@@ -32720,7 +32720,7 @@
         <v>72016</v>
       </c>
       <c r="AE127" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AF127" s="0">
         <v>1</v>
@@ -32734,10 +32734,10 @@
         <v>806</v>
       </c>
       <c r="B128" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C128" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D128" t="s">
         <v>45</v>
@@ -32778,16 +32778,16 @@
       </c>
       <c r="Q128" s="0"/>
       <c r="R128" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S128" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T128" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U128" t="s">
-        <v>1186</v>
+        <v>628</v>
       </c>
       <c r="V128" s="0">
         <v>71938391</v>
@@ -32796,19 +32796,19 @@
         <v>75448501</v>
       </c>
       <c r="X128" s="0">
-        <v>12.245555877685547</v>
+        <v>12.245701789855957</v>
       </c>
       <c r="Y128" s="0">
-        <v>-0.60626500844955444</v>
+        <v>-0.60631304979324341</v>
       </c>
       <c r="Z128" s="0">
-        <v>374.84298706054687</v>
+        <v>336.67626953125</v>
       </c>
       <c r="AA128" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AB128" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="AC128" t="s">
         <v>1344</v>
@@ -32817,7 +32817,7 @@
         <v>72016</v>
       </c>
       <c r="AE128" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="AF128" s="0">
         <v>1</v>
